--- a/reports/raw-views/assets/tables/meso_per_cat_minmax.xlsx
+++ b/reports/raw-views/assets/tables/meso_per_cat_minmax.xlsx
@@ -516,772 +516,764 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>linguagem e representação</t>
+          <t>maternidade</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1149780503557664</v>
+        <v>0.009843865097098409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06699772637601541</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.02985074626865682</v>
-      </c>
+        <v>0.1644615277481884</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>família</t>
+          <t>linguagem e representação</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01180764123068177</v>
+        <v>0.1149780503557664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.217515846040044</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
+        <v>0.06699772637601541</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>resistência e luta</t>
+          <t>família</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.09765825647091046</v>
+        <v>0.01180764123068177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2060222982880944</v>
+        <v>0.217515846040044</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6746746746746747</v>
-      </c>
-      <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>saudade, luto ou perda</t>
+          <t>resistência e luta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7296010100853808</v>
+        <v>0.09765825647091046</v>
       </c>
       <c r="C9" t="n">
-        <v>0.240792641016025</v>
+        <v>0.2060222982880944</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02985074626865682</v>
+        <v>0.6745230078563412</v>
       </c>
       <c r="E9" t="n">
-        <v>0.006060606060606017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>sonho e fantasia</t>
+          <t>saudade, luto ou perda</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6024657515707322</v>
+        <v>0.7296010100853808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3660610585779649</v>
+        <v>0.240792641016025</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02985074626865682</v>
+        <v>0.03010033444816049</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009063444108761283</v>
+        <v>0.006756756756756931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>questão agrária e territorial</t>
+          <t>sonho e fantasia</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.007878426155611526</v>
+        <v>0.6024657515707322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5534044896043896</v>
+        <v>0.3660610585779649</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7522865853658537</v>
+        <v>0.03010033444816049</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01204819277108421</v>
+        <v>0.01342281879194638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mobilidade</t>
+          <t>questão agrária e territorial</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1955561926033942</v>
+        <v>0.007878426155611526</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1733189057965303</v>
+        <v>0.5534044896043896</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5766391663048198</v>
+        <v>0.7517123287671232</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01204819277108421</v>
+        <v>0.01342281879194638</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>estruturas sociais e econômicas</t>
+          <t>mobilidade</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3042982738151534</v>
+        <v>0.1955561926033942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2851806637945615</v>
+        <v>0.1733189057965303</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02402402402402405</v>
+        <v>0.575816674792784</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01204819277108421</v>
+        <v>0.01342281879194638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>sistema penitenciário</t>
+          <t>tecnologia, inovação e sociedade</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01573021350765386</v>
+        <v>0.009843865097098409</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9261735546692708</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
+        <v>0.5554951447037371</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.01501501501501492</v>
+        <v>0.01672240802675598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>vida rural, vida no campo</t>
+          <t>sistema penitenciário</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5404000685018602</v>
+        <v>0.01573021350765386</v>
       </c>
       <c r="C15" t="n">
-        <v>0.393572857609351</v>
+        <v>0.9261735546692708</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01501501501501492</v>
+        <v>0.01672240802675598</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>recreação, lazer e entretenimento</t>
+          <t>vida rural, vida no campo</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.5404000685018602</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07349522027797104</v>
+        <v>0.393572857609351</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02985074626865682</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01501501501501492</v>
+        <v>0.01672240802675598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>reflexão</t>
+          <t>recreação, lazer e entretenimento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00197211133738422</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.07349522027797104</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02985074626865682</v>
+        <v>0.03010033444816049</v>
       </c>
       <c r="E17" t="n">
-        <v>0.169152828595553</v>
+        <v>0.01672240802675598</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>vida cotidiana</t>
+          <t>estruturas sociais e econômicas</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3622134994420639</v>
+        <v>0.3042982738151534</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2830586390250168</v>
+        <v>0.2851806637945615</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02694610778443127</v>
+        <v>0.02356902356902355</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2150427350427351</v>
+        <v>0.01672240802675598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>reflexão</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3908238931400018</v>
+        <v>0.00197211133738422</v>
       </c>
       <c r="C19" t="n">
-        <v>0.316651444718541</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.567435669920142</v>
+        <v>0.03010033444816049</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4018237082066869</v>
+        <v>0.1676627870399499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>pandemia</t>
+          <t>vida cotidiana</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6374966323176273</v>
+        <v>0.3622134994420639</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5846045578451793</v>
+        <v>0.2830586390250168</v>
       </c>
       <c r="D20" t="n">
-        <v>0.74609375</v>
+        <v>0.02684563758389252</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4393162393162393</v>
+        <v>0.2142038946162659</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>arte</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4473889112503763</v>
+        <v>0.3908238931400018</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1229787754676425</v>
+        <v>0.316651444718541</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.6113642455105869</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4709677419354838</v>
+        <v>0.4020338983050848</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>solidão</t>
+          <t>pandemia</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4448519716756111</v>
+        <v>0.6374966323176273</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1615659732965542</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.5846045578451793</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7447183098591549</v>
+      </c>
       <c r="E22" t="n">
-        <v>0.4969325153374233</v>
+        <v>0.438717067583047</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>memória e patrimônio</t>
+          <t>arte</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6404480535751201</v>
+        <v>0.4473889112503763</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3870763395910517</v>
+        <v>0.1229787754676425</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2269792728508326</v>
+        <v>0.3614344133375275</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4969325153374233</v>
+        <v>0.4923873803170618</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>dinâmica urbana</t>
+          <t>memória e patrimônio</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5642947526978185</v>
+        <v>0.6404480535751201</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2428731689280502</v>
+        <v>0.3870763395910517</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3312757201646092</v>
+        <v>0.2248949980908744</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4969325153374233</v>
+        <v>0.4965753424657535</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>política</t>
+          <t>solidão</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2658406082793572</v>
+        <v>0.4448519716756111</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8612121313295255</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5105421686746989</v>
-      </c>
+        <v>0.1615659732965542</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.503030303030303</v>
+        <v>0.4965753424657535</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>sonoridade e paisagem sonora</t>
+          <t>dinâmica urbana</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3780716616176815</v>
+        <v>0.5642947526978185</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4662868848353157</v>
+        <v>0.2428731689280502</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.3287037037037037</v>
       </c>
       <c r="E26" t="n">
-        <v>0.503030303030303</v>
+        <v>0.4965753424657535</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>territorialidade e colonialismo</t>
+          <t>sonoridade e paisagem sonora</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.7992186797845382</v>
+        <v>0.3780716616176815</v>
       </c>
       <c r="C27" t="n">
-        <v>0.180562355026172</v>
+        <v>0.4662868848353157</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8895684675501189</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.503030303030303</v>
+        <v>0.5033783783783785</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>saúde mental</t>
+          <t>territorialidade e colonialismo</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8391755387841752</v>
+        <v>0.7992186797845382</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3083490529686563</v>
+        <v>0.180562355026172</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6494066882416397</v>
+        <v>0.8892707140129821</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5607142857142856</v>
+        <v>0.5033783783783785</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>poesia e ensaio</t>
+          <t>política</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3844201043045476</v>
+        <v>0.2658406082793572</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2480209576589355</v>
+        <v>0.8612121313295255</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3970315398886828</v>
+        <v>0.5101351351351351</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5821656050955414</v>
+        <v>0.5033783783783785</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>povos originários e comunidades tradicionais</t>
+          <t>saúde mental</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.358805023395918</v>
+        <v>0.8391755387841752</v>
       </c>
       <c r="C30" t="n">
-        <v>0.753079967989343</v>
+        <v>0.3083490529686563</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8895684675501189</v>
+        <v>0.6206671026814912</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6572622779519331</v>
+        <v>0.5594405594405595</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>mulher, feminino e feminismo</t>
+          <t>poesia e ensaio</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.741300314492549</v>
+        <v>0.3844201043045476</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4826546599346259</v>
+        <v>0.2480209576589355</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4984567901234569</v>
+        <v>0.4098494098494098</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6572622779519331</v>
+        <v>0.5800000000000002</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>corpo, performance e expressão</t>
+          <t>povos originários e comunidades tradicionais</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2398020297810572</v>
+        <v>0.358805023395918</v>
       </c>
       <c r="C32" t="n">
-        <v>0.65624667212239</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>0.753079967989343</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8586055582642613</v>
+      </c>
       <c r="E32" t="n">
-        <v>0.6635897435897435</v>
+        <v>0.6060037523452158</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>trabalho e ofício</t>
+          <t>mulher, feminino e feminismo</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6817643072219247</v>
+        <v>0.741300314492549</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4818480702578282</v>
+        <v>0.4826546599346259</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5438817238125196</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6635897435897435</v>
+        <v>0.656140350877193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>distopia, ficção científica e futuros imaginados</t>
+          <t>corpo, performance e expressão</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6236784203091036</v>
+        <v>0.2398020297810572</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3340710298986552</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.6746746746746747</v>
-      </c>
+        <v>0.65624667212239</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>0.6635897435897435</v>
+        <v>0.6632302405498283</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>tecnologia, inovação e sociedade</t>
+          <t>distopia, ficção científica e futuros imaginados</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.009843865097098409</v>
+        <v>0.6236784203091036</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5554951447037371</v>
+        <v>0.3340710298986552</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.6745230078563412</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6696878147029204</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>sociedade e consumo</t>
+          <t>violências e preconceitos de gênero</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2565198049716462</v>
+        <v>0.3432649986348301</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3817172538656722</v>
+        <v>0.9715323261943718</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6696878147029204</v>
+        <v>0.6700336700336702</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>violências e preconceitos de gênero</t>
+          <t>sociedade e consumo</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3432649986348301</v>
+        <v>0.2565198049716462</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9715323261943718</v>
+        <v>0.3817172538656722</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6696878147029204</v>
+        <v>0.6700336700336702</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>alimentação e tratamentos tradicionais</t>
+          <t>moradia e habitação</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.6407847426528892</v>
+        <v>0.4501957803206739</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0.1465016357325821</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4108761329305136</v>
+        <v>0.3287037037037037</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7484662576687116</v>
+        <v>0.6700336700336702</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>vida afetiva</t>
+          <t>violência</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.4046111906318235</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2581704093286067</v>
+        <v>0.09755202843081125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.8033898305084746</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7484662576687116</v>
+        <v>0.6700336700336702</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ambiental</t>
+          <t>trabalho e ofício</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.8076672965220715</v>
+        <v>0.6817643072219247</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4572079115986321</v>
+        <v>0.4818480702578282</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5751633986928105</v>
+        <v>0.6678121420389461</v>
       </c>
       <c r="E40" t="n">
-        <v>0.7707255696910388</v>
+        <v>0.7482876712328766</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>violência</t>
+          <t>vida afetiva</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.4046111906318235</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09755202843081125</v>
+        <v>0.2581704093286067</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6717171717171717</v>
+        <v>0.3614344133375275</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8006079027355623</v>
+        <v>0.7482876712328766</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>moradia e habitação</t>
+          <t>alimentação e tratamentos tradicionais</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4501957803206739</v>
+        <v>0.6407847426528892</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1465016357325821</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4232475598935226</v>
+        <v>0.4101694915254238</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8006079027355623</v>
+        <v>0.7482876712328766</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>desinformação, populismo e polarização</t>
+          <t>educação e socialização</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.8487816303702602</v>
+        <v>0.5344141900327821</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9544999994540984</v>
+        <v>0.1743901668865061</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02694610778443127</v>
+        <v>0.6</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8006079027355623</v>
+        <v>0.7482876712328766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>educação e socialização</t>
+          <t>desinformação, populismo e polarização</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.5344141900327821</v>
+        <v>0.8487816303702602</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1743901668865061</v>
+        <v>0.9544999994540984</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6625129802699896</v>
+        <v>0.02684563758389252</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8302277432712215</v>
+        <v>0.8006779661016949</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>religião, espiritualidade e cosmologias</t>
+          <t>ambiental</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8210032816280555</v>
+        <v>0.8076672965220715</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2800113589597854</v>
+        <v>0.4572079115986321</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7522865853658537</v>
+        <v>0.5940959409594095</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8302277432712215</v>
+        <v>0.8077174623937214</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>gênero e sexualidade</t>
+          <t>religião, espiritualidade e cosmologias</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5116759821182142</v>
+        <v>0.8210032816280555</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9888511034491386</v>
+        <v>0.2800113589597854</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9090909090909092</v>
+        <v>0.8033898305084746</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9076836476217282</v>
+        <v>0.8877434135166095</v>
       </c>
     </row>
     <row r="47">
@@ -1297,25 +1289,27 @@
         <v>0.3638649787863257</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2568597560975611</v>
+        <v>0.2551369863013699</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9076836476217282</v>
+        <v>0.9075180874488833</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>maternidade</t>
+          <t>pessoas com deficiência</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.009843865097098409</v>
+        <v>0.8339904252323289</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1644615277481884</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>0.4293576085057091</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
@@ -1323,14 +1317,14 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>pessoas com deficiência</t>
+          <t>gênero e sexualidade</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.8339904252323289</v>
+        <v>0.5116759821182142</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4293576085057091</v>
+        <v>0.9888511034491386</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1386,7 +1380,7 @@
         <v>0.9725001544084381</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02694610778443127</v>
+        <v>0.03010033444816049</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
